--- a/sampleInfo/RNA seq record.xlsx
+++ b/sampleInfo/RNA seq record.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\NGS RNA seq\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9000"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="20420" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="43">
   <si>
     <t>NGS method</t>
   </si>
@@ -137,9 +137,6 @@
     <t>half brain (female)</t>
   </si>
   <si>
-    <t>HXB 27, 7, 25, 27, 17, 2,13,12, SHR</t>
-  </si>
-  <si>
     <t>Number of 
 samples</t>
   </si>
@@ -150,14 +147,20 @@
     <t>August, 2014</t>
   </si>
   <si>
-    <t>Column1</t>
+    <t>Received Data from Beckman</t>
+  </si>
+  <si>
+    <t>Received Data from UCD Core</t>
+  </si>
+  <si>
+    <t>HXB 27, 7, 25, 17, 2,13,BXH12, SHR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,10 +177,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -199,120 +211,126 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,14 +373,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -606,19 +646,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:J18" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A2:J18"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="Sample strain" dataDxfId="9"/>
-    <tableColumn id="2" name="Source" dataDxfId="8"/>
-    <tableColumn id="6" name="Tissue type" dataDxfId="7"/>
-    <tableColumn id="3" name="Number of _x000a_samples" dataDxfId="6"/>
-    <tableColumn id="4" name="NGS method" dataDxfId="5"/>
-    <tableColumn id="5" name="Date" dataDxfId="4"/>
-    <tableColumn id="7" name="Total RNA Seq _x000a_parameter" dataDxfId="3"/>
-    <tableColumn id="8" name="Small RNA Seq _x000a_parameter2" dataDxfId="2"/>
-    <tableColumn id="9" name="Spike-in control_x000a_added to total RNA" dataDxfId="1"/>
-    <tableColumn id="10" name="Column1" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:K18" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A2:K18"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Sample strain" dataDxfId="10"/>
+    <tableColumn id="2" name="Source" dataDxfId="9"/>
+    <tableColumn id="6" name="Tissue type" dataDxfId="8"/>
+    <tableColumn id="3" name="Number of _x000a_samples" dataDxfId="7"/>
+    <tableColumn id="4" name="NGS method" dataDxfId="6"/>
+    <tableColumn id="5" name="Date" dataDxfId="5"/>
+    <tableColumn id="7" name="Total RNA Seq _x000a_parameter" dataDxfId="4"/>
+    <tableColumn id="8" name="Small RNA Seq _x000a_parameter2" dataDxfId="3"/>
+    <tableColumn id="9" name="Spike-in control_x000a_added to total RNA" dataDxfId="2"/>
+    <tableColumn id="11" name="Received Data from UCD Core" dataDxfId="0"/>
+    <tableColumn id="10" name="Received Data from Beckman" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -667,7 +708,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -702,7 +743,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -911,26 +952,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J21"/>
+  <dimension ref="A2:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="59.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="59.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="33.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="28">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -941,7 +983,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>0</v>
@@ -958,11 +1000,14 @@
       <c r="I2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -991,8 +1036,9 @@
         <v>27</v>
       </c>
       <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1020,9 +1066,10 @@
       <c r="I4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J4" s="14"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1050,9 +1097,10 @@
       <c r="I5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" s="14"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1080,9 +1128,10 @@
       <c r="I6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" s="14"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1110,9 +1159,10 @@
       <c r="I7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" s="14"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1140,9 +1190,10 @@
       <c r="I8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="14"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1171,8 +1222,9 @@
         <v>28</v>
       </c>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -1201,8 +1253,9 @@
         <v>28</v>
       </c>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
@@ -1231,8 +1284,9 @@
         <v>28</v>
       </c>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
@@ -1261,8 +1315,9 @@
         <v>28</v>
       </c>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1291,8 +1346,9 @@
         <v>28</v>
       </c>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
@@ -1320,9 +1376,10 @@
       <c r="I14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14" s="9"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
@@ -1350,9 +1407,10 @@
       <c r="I15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J15" s="9"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -1380,11 +1438,12 @@
       <c r="I16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J16" s="9"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>29</v>
@@ -1411,10 +1470,11 @@
         <v>28</v>
       </c>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
@@ -1429,7 +1489,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>23</v>
@@ -1441,14 +1501,15 @@
         <v>28</v>
       </c>
       <c r="J18" s="9"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="9"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="D20">
         <f>3+D12+D13+D14+D15+D16+D17</f>
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="D21">
         <f>48-D20</f>
         <v>10</v>
@@ -1456,10 +1517,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="60" orientation="landscape"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1469,9 +1535,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1481,8 +1552,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/sampleInfo/RNA seq record.xlsx
+++ b/sampleInfo/RNA seq record.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\NGS RNA seq\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="20420" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8988"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="44">
   <si>
     <t>NGS method</t>
   </si>
@@ -137,6 +137,9 @@
     <t>half brain (female)</t>
   </si>
   <si>
+    <t>HXB 27, 7, 25, 27, 17, 2,13,12, SHR</t>
+  </si>
+  <si>
     <t>Number of 
 samples</t>
   </si>
@@ -147,20 +150,20 @@
     <t>August, 2014</t>
   </si>
   <si>
-    <t>Received Data from Beckman</t>
-  </si>
-  <si>
-    <t>Received Data from UCD Core</t>
-  </si>
-  <si>
-    <t>HXB 27, 7, 25, 17, 2,13,BXH12, SHR</t>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>BXH 3,5,6,8,9,10,11,SHR, BNLX</t>
+  </si>
+  <si>
+    <t>December, 2014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,19 +180,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -211,126 +205,120 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,36 +361,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -646,20 +612,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:K18" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A2:K18"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Sample strain" dataDxfId="10"/>
-    <tableColumn id="2" name="Source" dataDxfId="9"/>
-    <tableColumn id="6" name="Tissue type" dataDxfId="8"/>
-    <tableColumn id="3" name="Number of _x000a_samples" dataDxfId="7"/>
-    <tableColumn id="4" name="NGS method" dataDxfId="6"/>
-    <tableColumn id="5" name="Date" dataDxfId="5"/>
-    <tableColumn id="7" name="Total RNA Seq _x000a_parameter" dataDxfId="4"/>
-    <tableColumn id="8" name="Small RNA Seq _x000a_parameter2" dataDxfId="3"/>
-    <tableColumn id="9" name="Spike-in control_x000a_added to total RNA" dataDxfId="2"/>
-    <tableColumn id="11" name="Received Data from UCD Core" dataDxfId="0"/>
-    <tableColumn id="10" name="Received Data from Beckman" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:J19" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A2:J19"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Sample strain" dataDxfId="9"/>
+    <tableColumn id="2" name="Source" dataDxfId="8"/>
+    <tableColumn id="6" name="Tissue type" dataDxfId="7"/>
+    <tableColumn id="3" name="Number of _x000a_samples" dataDxfId="6"/>
+    <tableColumn id="4" name="NGS method" dataDxfId="5"/>
+    <tableColumn id="5" name="Date" dataDxfId="4"/>
+    <tableColumn id="7" name="Total RNA Seq _x000a_parameter" dataDxfId="3"/>
+    <tableColumn id="8" name="Small RNA Seq _x000a_parameter2" dataDxfId="2"/>
+    <tableColumn id="9" name="Spike-in control_x000a_added to total RNA" dataDxfId="1"/>
+    <tableColumn id="10" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -708,7 +673,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -743,7 +708,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -952,27 +917,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K21"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="50.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="33.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="10" width="17.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="28">
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -983,7 +950,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>0</v>
@@ -1000,14 +967,11 @@
       <c r="I2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1036,9 +1000,8 @@
         <v>27</v>
       </c>
       <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1066,10 +1029,9 @@
       <c r="I4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1097,10 +1059,9 @@
       <c r="I5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1128,10 +1089,9 @@
       <c r="I6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1159,10 +1119,9 @@
       <c r="I7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1190,10 +1149,9 @@
       <c r="I8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1222,9 +1180,8 @@
         <v>28</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -1253,9 +1210,8 @@
         <v>28</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
@@ -1284,9 +1240,8 @@
         <v>28</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
@@ -1315,9 +1270,8 @@
         <v>28</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1346,9 +1300,8 @@
         <v>28</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
@@ -1376,10 +1329,9 @@
       <c r="I14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
@@ -1407,10 +1359,9 @@
       <c r="I15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -1438,12 +1389,11 @@
       <c r="I16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>29</v>
@@ -1470,11 +1420,10 @@
         <v>28</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
@@ -1489,7 +1438,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>23</v>
@@ -1501,31 +1450,43 @@
         <v>28</v>
       </c>
       <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="D20">
-        <f>3+D12+D13+D14+D15+D16+D17</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="D21">
-        <f>48-D20</f>
-        <v>10</v>
-      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="2">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1535,14 +1496,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1552,13 +1508,8 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/sampleInfo/RNA seq record.xlsx
+++ b/sampleInfo/RNA seq record.xlsx
@@ -5,28 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\NGS RNA seq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\NGS RNA seq\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8988"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16116" windowHeight="8772"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="57">
   <si>
     <t>NGS method</t>
-  </si>
-  <si>
-    <t>Date</t>
   </si>
   <si>
     <t>Source</t>
@@ -134,9 +131,6 @@
     <t xml:space="preserve">half brain </t>
   </si>
   <si>
-    <t>half brain (female)</t>
-  </si>
-  <si>
     <t>HXB 27, 7, 25, 27, 17, 2,13,12, SHR</t>
   </si>
   <si>
@@ -157,6 +151,52 @@
   </si>
   <si>
     <t>December, 2014</t>
+  </si>
+  <si>
+    <t>January, 2015</t>
+  </si>
+  <si>
+    <t>small RNA</t>
+  </si>
+  <si>
+    <t>Total RNA</t>
+  </si>
+  <si>
+    <t>April, 2015</t>
+  </si>
+  <si>
+    <t>2x100</t>
+  </si>
+  <si>
+    <t>Date of 
+sample submission</t>
+  </si>
+  <si>
+    <t>Gender of animal</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liver </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> small RNA</t>
+  </si>
+  <si>
+    <t>MuKO</t>
+  </si>
+  <si>
+    <t>Kieffer Lab</t>
+  </si>
+  <si>
+    <t>March, 2015</t>
+  </si>
+  <si>
+    <t>1x50</t>
   </si>
 </sst>
 </file>
@@ -318,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,9 +371,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -364,11 +401,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -404,6 +447,56 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -443,48 +536,15 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -612,15 +672,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:J19" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A2:J19"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="Sample strain" dataDxfId="9"/>
-    <tableColumn id="2" name="Source" dataDxfId="8"/>
-    <tableColumn id="6" name="Tissue type" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:K24" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A2:K24"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Sample strain" dataDxfId="10"/>
+    <tableColumn id="2" name="Source" dataDxfId="9"/>
+    <tableColumn id="6" name="Tissue type" dataDxfId="8"/>
+    <tableColumn id="11" name="Gender of animal" dataDxfId="7"/>
     <tableColumn id="3" name="Number of _x000a_samples" dataDxfId="6"/>
     <tableColumn id="4" name="NGS method" dataDxfId="5"/>
-    <tableColumn id="5" name="Date" dataDxfId="4"/>
+    <tableColumn id="5" name="Date of _x000a_sample submission" dataDxfId="4"/>
     <tableColumn id="7" name="Total RNA Seq _x000a_parameter" dataDxfId="3"/>
     <tableColumn id="8" name="Small RNA Seq _x000a_parameter2" dataDxfId="2"/>
     <tableColumn id="9" name="Spike-in control_x000a_added to total RNA" dataDxfId="1"/>
@@ -920,570 +981,776 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J19"/>
+  <dimension ref="A2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50.88671875" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="17" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="14">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="7">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="2">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="2">
+        <v>16</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="H18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="16" t="s">
+      <c r="I18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="2">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="H19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="7">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="7">
+        <v>16</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="7">
         <v>4</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="14" t="s">
+      <c r="F23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="7">
+        <v>9</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="8">
-        <v>3</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="8">
-        <v>3</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="15">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="8">
-        <v>4</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="8">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="8">
-        <v>4</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="2">
-        <v>16</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="2">
-        <v>16</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="2">
-        <v>16</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="9"/>
+      <c r="K24" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="50" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
